--- a/biology/Botanique/Cyprès_de_Gowen/Cyprès_de_Gowen.xlsx
+++ b/biology/Botanique/Cyprès_de_Gowen/Cyprès_de_Gowen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Gowen</t>
+          <t>Cyprès_de_Gowen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus goveniana
 Le cyprès de Gowen ou cyprès de Californie (Cupressus goveniana) est une espèce de plantes de la famille des  Cupressaceae. C'est un arbre originaire de la Californie aux États-Unis.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Gowen</t>
+          <t>Cyprès_de_Gowen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce endémique de la Californie. éparses de petite taille, jamais de peuplement important.
 La population compte au total moins de 200 individus.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Gowen</t>
+          <t>Cyprès_de_Gowen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès de Gowen est un arbre toujours vert de forme générale conique, de taille très variable en fonction des conditions de milieu, pouvant aller d'arbres nains de moins d'un mètre à l'âge adulte sur certains sites jusqu'à des géants de 60 mètres de haut dans des conditions idéales.
 Le feuillage forme des rameaux denses, de couleur vert foncé à jaune vert.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Gowen</t>
+          <t>Cyprès_de_Gowen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux ou trois variétés que certains botanistes considèrent comme des espèces distinctes :
 Cupressus goveniana var. goveniana - Cyprès de Gowen proprement dit.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_de_Gowen</t>
+          <t>Cyprès_de_Gowen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Où voir Cupressus goveniana?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin botanique du Val Rahmeh à Menton</t>
         </is>
